--- a/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
+++ b/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
@@ -197,7 +197,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -236,6 +236,9 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>0.1007</v>
+      </c>
       <c r="D3" s="2" t="n">
         <v>0.1234</v>
       </c>
@@ -311,7 +314,7 @@
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>0.1062</v>
+        <v>0.10345</v>
       </c>
       <c r="D12" s="2" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
@@ -337,7 +340,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -370,7 +373,9 @@
       <c r="B2" s="2" t="n">
         <v>0.0997</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -418,8 +423,8 @@
       <c r="B5" s="2" t="n">
         <v>0.1022</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+      <c r="C5" s="2" t="n">
+        <v>0.033</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -436,7 +441,9 @@
       <c r="B6" s="2" t="n">
         <v>0.0938</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -465,8 +472,8 @@
       <c r="A8" s="2" t="n">
         <v>0.1125</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
+      <c r="B8" s="2" t="n">
+        <v>0.1027</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -518,11 +525,11 @@
       </c>
       <c r="B11" s="3" t="n">
         <f aca="false">AVERAGE(B1:B10)</f>
-        <v>0.100433333333333</v>
-      </c>
-      <c r="C11" s="3" t="e">
+        <v>0.10066</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <f aca="false">AVERAGE(C1:C10)</f>
-        <v>#DIV/0!</v>
+        <v>0.033</v>
       </c>
       <c r="D11" s="3" t="e">
         <f aca="false">AVERAGE(D1:D10)</f>

--- a/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
+++ b/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="RESULTS" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Φύλλο2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">RANDOM FOREST</t>
+  </si>
   <si>
     <t xml:space="preserve">MLP10 BFGS</t>
   </si>
@@ -60,12 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">DASI2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Χ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
   </si>
 </sst>
 </file>
@@ -81,6 +78,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,12 +100,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,20 +152,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -173,7 +181,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -194,19 +202,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -219,107 +228,201 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0.0942</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.1062</v>
+        <v>0.1161</v>
       </c>
       <c r="D2" s="2" t="n">
+        <v>0.1028</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>0.1376</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.0895</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.1007</v>
+        <v>0.1086</v>
       </c>
       <c r="D3" s="2" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>0.1234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.0436</v>
       </c>
       <c r="D4" s="2" t="n">
+        <v>0.0361</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>0.0725</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0.0929</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.106</v>
       </c>
       <c r="D5" s="2" t="n">
+        <v>0.0977</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>0.1287</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.1016</v>
       </c>
       <c r="D6" s="2" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>0.1112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.0801</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.0927</v>
       </c>
       <c r="D7" s="2" t="n">
+        <v>0.0826</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>0.0983</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.0669</v>
       </c>
       <c r="D8" s="2" t="n">
+        <v>0.0562</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>0.1039</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.1192</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.1412</v>
       </c>
       <c r="D9" s="2" t="n">
+        <v>0.1271</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>0.1817</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0.0893</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.0986</v>
       </c>
       <c r="D10" s="2" t="n">
+        <v>0.0898</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>0.1105</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.0766</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.0955</v>
       </c>
       <c r="D11" s="2" t="n">
+        <v>0.0863</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>0.1153</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="e">
+    <row r="12" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="2" t="n">
+        <v>0.08126</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>0.10345</v>
-      </c>
-      <c r="D12" s="2" t="n">
+        <v>0.09708</v>
+      </c>
+      <c r="D12" s="5" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
+        <v>0.08672</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <f aca="false">AVERAGE(E2:E11)</f>
         <v>0.11831</v>
       </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -339,8 +442,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,245 +453,395 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
-        <v>0.1156</v>
+        <v>0.1039</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>0.0933</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+        <v>0.0879</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>0.0468</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>0.0936</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>0.0744</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>0.0673</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>0.0923</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>0.0974</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0.1034</v>
+        <v>0.102</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.0997</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+        <v>0.099</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.0313</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.0851</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.0674</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.1121</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.0827</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.0846</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>0.1102</v>
+        <v>0.1077</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.1001</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+        <v>0.0953</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.0408</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.0995</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.0982</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.0791</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.0564</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.1084</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0.0817</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0.0826</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>0.0992</v>
+        <v>0.0922</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.0926</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.0876</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.0881</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.0764</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.1337</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.0831</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.0668</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>0.1111</v>
+        <v>0.1041</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.1022</v>
+        <v>0.0953</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+        <v>0.0338</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.1039</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.0764</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.0865</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.0489</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.1218</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0.0892</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0.0916</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>0.1194</v>
+        <v>0.1153</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.0938</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="C6" s="2" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.0933</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.0841</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.0641</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.0877</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0.0789</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>0.1193</v>
+        <v>0.1154</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+        <v>0.1035</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.0341</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.0923</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.0935</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.1134</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.0857</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.0825</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>0.1125</v>
+        <v>0.112</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.1027</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>0.1029</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.0329</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.0945</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.0825</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0.0499</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0.1407</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.1148</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0.0917</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>0.0919</v>
+        <v>0.0925</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.1139</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.1024</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.1101</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.1078</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.0488</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.1339</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0.0948</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0.1078</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>0.079</v>
+        <v>0.0833</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.1013</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+        <v>0.1011</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.0348</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.1001</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.0877</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.0881</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.0584</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0.1299</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0.0786</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <f aca="false">AVERAGE(A1:A10)</f>
-        <v>0.10616</v>
-      </c>
-      <c r="B11" s="3" t="n">
+        <v>0.10284</v>
+      </c>
+      <c r="B11" s="5" t="n">
         <f aca="false">AVERAGE(B1:B10)</f>
-        <v>0.10066</v>
-      </c>
-      <c r="C11" s="3" t="n">
+        <v>0.09712</v>
+      </c>
+      <c r="C11" s="5" t="n">
         <f aca="false">AVERAGE(C1:C10)</f>
-        <v>0.033</v>
-      </c>
-      <c r="D11" s="3" t="e">
+        <v>0.03605</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <f aca="false">AVERAGE(D1:D10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="3" t="e">
+        <v>0.0977</v>
+      </c>
+      <c r="E11" s="5" t="n">
         <f aca="false">AVERAGE(E1:E10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="3" t="e">
+        <v>0.09146</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <f aca="false">AVERAGE(F1:F10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="3" t="e">
+        <v>0.08261</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <f aca="false">AVERAGE(G1:G10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="3" t="e">
+        <v>0.05622</v>
+      </c>
+      <c r="H11" s="5" t="n">
         <f aca="false">AVERAGE(H1:H10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="3" t="e">
+        <v>0.12713</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <f aca="false">AVERAGE(I1:I10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="3" t="e">
+        <v>0.0898</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <f aca="false">AVERAGE(J1:J10)</f>
-        <v>#DIV/0!</v>
+        <v>0.08625</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="3" t="n">
         <v>2023</v>
       </c>
     </row>

--- a/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
+++ b/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTS" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Φύλλο2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BFGS_RESULTS" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Φύλλο2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">RANDOM FOREST</t>
   </si>
@@ -63,6 +64,18 @@
   </si>
   <si>
     <t xml:space="preserve">DASI2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP15</t>
   </si>
 </sst>
 </file>
@@ -73,7 +86,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -109,6 +122,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,11 +196,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,8 +235,8 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -232,7 +263,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="0"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -422,7 +453,7 @@
         <v>0.11831</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="0"/>
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -440,10 +471,179 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0.1288</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="2" t="n">
+        <v>0.1028</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="2" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="2" t="n">
+        <v>0.0361</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="2" t="n">
+        <v>0.0977</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="n">
+        <v>0.0826</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="n">
+        <v>0.0562</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="n">
+        <v>0.1271</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="n">
+        <v>0.0898</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="10" t="n">
+        <f aca="false">AVERAGE(B2:B10)</f>
+        <v>0.1288</v>
+      </c>
+      <c r="C11" s="10" t="e">
+        <f aca="false">AVERAGE(C2:C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <f aca="false">AVERAGE(D2:D10)</f>
+        <v>0.0867666666666667</v>
+      </c>
+      <c r="E11" s="10" t="e">
+        <f aca="false">AVERAGE(E2:E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,364 +653,184 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
-        <v>0.1039</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>0.0879</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>0.0468</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>0.0936</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>0.0744</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>0.0673</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>0.0538</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>0.1519</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>0.0923</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>0.0974</v>
-      </c>
+        <v>0.1505</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0.0313</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0.1021</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0.0818</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0.0851</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0.0674</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0.1121</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.0827</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0.0846</v>
-      </c>
+        <v>0.1238</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>0.1077</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.0953</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.0408</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0.0995</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0.0982</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0.0791</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0.0564</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0.1084</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.0817</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0.0826</v>
-      </c>
+        <v>0.1282</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>0.0922</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.0288</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0.0876</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.0881</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0.0764</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0.1337</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.0831</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.0668</v>
-      </c>
+        <v>0.1203</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>0.1041</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.0953</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.0338</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0.1039</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0.0764</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0.0865</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.0489</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.1218</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.0892</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.0916</v>
-      </c>
+        <v>0.1376</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>0.1153</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0.0938</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0.0417</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0.0933</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0.0841</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.0641</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.1255</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.0877</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0.0789</v>
-      </c>
+        <v>0.1435</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>0.1154</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.1035</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.0341</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0.0923</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0.0935</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0.0885</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.1134</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.0857</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.0825</v>
-      </c>
+        <v>0.1321</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0.1029</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>0.0329</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0.0945</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0.1067</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0.0825</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0.0499</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0.1407</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.1148</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.0917</v>
-      </c>
+        <v>0.1319</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>0.0925</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>0.1024</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0.0355</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0.1101</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0.1078</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0.0885</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0.0488</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0.1339</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.0948</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0.1078</v>
-      </c>
+        <v>0.1087</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0.1011</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.0348</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0.1001</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0.0877</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0.0881</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0.0584</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0.1299</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0.0786</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.1116</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <f aca="false">AVERAGE(A1:A10)</f>
-        <v>0.10284</v>
-      </c>
-      <c r="B11" s="5" t="n">
+        <v>0.12882</v>
+      </c>
+      <c r="B11" s="5" t="e">
         <f aca="false">AVERAGE(B1:B10)</f>
-        <v>0.09712</v>
-      </c>
-      <c r="C11" s="5" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="5" t="e">
         <f aca="false">AVERAGE(C1:C10)</f>
-        <v>0.03605</v>
-      </c>
-      <c r="D11" s="5" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="5" t="e">
         <f aca="false">AVERAGE(D1:D10)</f>
-        <v>0.0977</v>
-      </c>
-      <c r="E11" s="5" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="5" t="e">
         <f aca="false">AVERAGE(E1:E10)</f>
-        <v>0.09146</v>
-      </c>
-      <c r="F11" s="5" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="5" t="e">
         <f aca="false">AVERAGE(F1:F10)</f>
-        <v>0.08261</v>
-      </c>
-      <c r="G11" s="5" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="5" t="e">
         <f aca="false">AVERAGE(G1:G10)</f>
-        <v>0.05622</v>
-      </c>
-      <c r="H11" s="5" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="5" t="e">
         <f aca="false">AVERAGE(H1:H10)</f>
-        <v>0.12713</v>
-      </c>
-      <c r="I11" s="5" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="5" t="e">
         <f aca="false">AVERAGE(I1:I10)</f>
-        <v>0.0898</v>
-      </c>
-      <c r="J11" s="5" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="5" t="e">
         <f aca="false">AVERAGE(J1:J10)</f>
-        <v>0.08625</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
+++ b/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTS" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="BFGS_RESULTS" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Φύλλο2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="noise_results_2014" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">RANDOM FOREST</t>
   </si>
@@ -76,6 +77,33 @@
   </si>
   <si>
     <t xml:space="preserve">MLP15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEATURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERAGE_PER_NOISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise: 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise: 2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise: 3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise: 4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise: 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERAGE PER FEATURE</t>
   </si>
 </sst>
 </file>
@@ -171,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,6 +244,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,8 +275,8 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,10 +511,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,9 +523,7 @@
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="n">
-        <v>2014</v>
-      </c>
+      <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
@@ -498,131 +536,238 @@
       <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>0.1288</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="n">
+        <v>0.124</v>
+      </c>
       <c r="D2" s="2" t="n">
-        <v>0.1028</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>0.1161</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>0.1143</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+        <v>2015</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0.1178</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>0.1098</v>
+      </c>
       <c r="D3" s="2" t="n">
-        <v>0.0971</v>
-      </c>
-      <c r="E3" s="9"/>
+        <v>0.1086</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>0.1271</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0.1266</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+        <v>2016</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0.0508</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>0.044</v>
+      </c>
       <c r="D4" s="2" t="n">
-        <v>0.0361</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>0.0436</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>0.0413</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0.0414</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+        <v>2017</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0.1214</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>0.1071</v>
+      </c>
       <c r="D5" s="2" t="n">
-        <v>0.0977</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>0.106</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0.1046</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+        <v>2018</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0.1046</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0.1028</v>
+      </c>
       <c r="D6" s="2" t="n">
-        <v>0.0915</v>
-      </c>
-      <c r="E6" s="9"/>
+        <v>0.1016</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>0.1004</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0.099</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+        <v>2019</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0.0961</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>0.0921</v>
+      </c>
       <c r="D7" s="2" t="n">
-        <v>0.0826</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>0.0927</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0.0912</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.0901</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+        <v>2020</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0.0749</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>0.0667</v>
+      </c>
       <c r="D8" s="2" t="n">
-        <v>0.0562</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>0.0669</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0.0636</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0.064</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0.1629</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0.1482</v>
+      </c>
       <c r="D9" s="2" t="n">
-        <v>0.1271</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>0.1412</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.1405</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0.1395</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0.1039</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>0.1006</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.0986</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.0967</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0.0963</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
         <v>2023</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="2" t="n">
-        <v>0.0898</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="10" t="n">
-        <f aca="false">AVERAGE(B2:B10)</f>
-        <v>0.1288</v>
-      </c>
-      <c r="C11" s="10" t="e">
-        <f aca="false">AVERAGE(C2:C10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <f aca="false">AVERAGE(D2:D10)</f>
-        <v>0.0867666666666667</v>
-      </c>
-      <c r="E11" s="10" t="e">
-        <f aca="false">AVERAGE(E2:E10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B11" s="9" t="n">
+        <v>0.1051</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>0.0996</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.0955</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>0.0945</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0.0947</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="10" t="n">
+        <f aca="false">AVERAGE(B2:B11)</f>
+        <v>0.10663</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <f aca="false">AVERAGE(C2:C11)</f>
+        <v>0.09949</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <f aca="false">AVERAGE(D2:D11)</f>
+        <v>0.09708</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <f aca="false">AVERAGE(E2:E11)</f>
+        <v>0.09791</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <f aca="false">AVERAGE(F2:F11)</f>
+        <v>0.09705</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -640,10 +785,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y5" activeCellId="0" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,217 +798,1746 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
-        <v>0.1505</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+        <v>0.1203</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>0.1273</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>0.1213</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>0.1231</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>0.1278</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>0.1196</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>0.1226</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>0.1236</v>
+      </c>
+      <c r="K1" s="9" t="n">
+        <v>0.1246</v>
+      </c>
+      <c r="L1" s="9" t="n">
+        <v>0.1205</v>
+      </c>
+      <c r="M1" s="9" t="n">
+        <v>0.1218</v>
+      </c>
+      <c r="N1" s="9" t="n">
+        <v>0.1208</v>
+      </c>
+      <c r="O1" s="9" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="P1" s="9" t="n">
+        <v>0.1223</v>
+      </c>
+      <c r="Q1" s="9" t="n">
+        <v>0.1256</v>
+      </c>
+      <c r="R1" s="9" t="n">
+        <v>0.1258</v>
+      </c>
+      <c r="S1" s="9" t="n">
+        <v>0.1233</v>
+      </c>
+      <c r="T1" s="9" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="U1" s="9" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="V1" s="9" t="n">
+        <v>0.1214</v>
+      </c>
+      <c r="W1" s="9" t="n">
+        <v>0.1256</v>
+      </c>
+      <c r="X1" s="9" t="n">
+        <v>0.1212</v>
+      </c>
+      <c r="Y1" s="9" t="n">
+        <v>0.1251</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0.1238</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+        <v>0.1143</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.1135</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.1122</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.1146</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.1147</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.1145</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.1127</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.1149</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0.1128</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0.1118</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0.1123</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>0.1114</v>
+      </c>
+      <c r="O2" s="9" t="n">
+        <v>0.1118</v>
+      </c>
+      <c r="P2" s="9" t="n">
+        <v>0.1114</v>
+      </c>
+      <c r="Q2" s="9" t="n">
+        <v>0.1131</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>0.1148</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>0.1131</v>
+      </c>
+      <c r="T2" s="9" t="n">
+        <v>0.1144</v>
+      </c>
+      <c r="U2" s="9" t="n">
+        <v>0.1149</v>
+      </c>
+      <c r="V2" s="9" t="n">
+        <v>0.1124</v>
+      </c>
+      <c r="W2" s="9" t="n">
+        <v>0.1114</v>
+      </c>
+      <c r="X2" s="9" t="n">
+        <v>0.1122</v>
+      </c>
+      <c r="Y2" s="9" t="n">
+        <v>0.1121</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>0.1282</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+        <v>0.1188</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.1204</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.1174</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.1171</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0.1151</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0.1177</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0.1148</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>0.1182</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>0.1173</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>0.1174</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="T3" s="9" t="n">
+        <v>0.1162</v>
+      </c>
+      <c r="U3" s="9" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="V3" s="9" t="n">
+        <v>0.1144</v>
+      </c>
+      <c r="W3" s="9" t="n">
+        <v>0.1193</v>
+      </c>
+      <c r="X3" s="9" t="n">
+        <v>0.1127</v>
+      </c>
+      <c r="Y3" s="9" t="n">
+        <v>0.1184</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>0.1203</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+        <v>0.1121</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.1107</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.1123</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.1081</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.1098</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.1085</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.1085</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.1101</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0.1105</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0.1137</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>0.1118</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>0.1117</v>
+      </c>
+      <c r="P4" s="9" t="n">
+        <v>0.1114</v>
+      </c>
+      <c r="Q4" s="9" t="n">
+        <v>0.1114</v>
+      </c>
+      <c r="R4" s="9" t="n">
+        <v>0.1103</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <v>0.1092</v>
+      </c>
+      <c r="T4" s="9" t="n">
+        <v>0.1121</v>
+      </c>
+      <c r="U4" s="9" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="V4" s="9" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="W4" s="9" t="n">
+        <v>0.1136</v>
+      </c>
+      <c r="X4" s="9" t="n">
+        <v>0.1132</v>
+      </c>
+      <c r="Y4" s="9" t="n">
+        <v>0.1134</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>0.1376</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+        <v>0.1208</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.1208</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.1229</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.1223</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.1184</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0.1204</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0.1194</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0.1178</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0.1216</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0.1193</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>0.1178</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>0.1189</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>0.1213</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>0.1197</v>
+      </c>
+      <c r="T5" s="9" t="n">
+        <v>0.1172</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="V5" s="9" t="n">
+        <v>0.1191</v>
+      </c>
+      <c r="W5" s="9" t="n">
+        <v>0.1208</v>
+      </c>
+      <c r="X5" s="9" t="n">
+        <v>0.1203</v>
+      </c>
+      <c r="Y5" s="9" t="n">
+        <v>0.1218</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>0.1435</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+        <v>0.1303</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.1308</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0.1294</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.1353</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.1301</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.1307</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.1304</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0.1303</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0.1317</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0.1345</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>0.1296</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>0.1304</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>0.1312</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>0.1307</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>0.1302</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>0.1307</v>
+      </c>
+      <c r="W6" s="9" t="n">
+        <v>0.1284</v>
+      </c>
+      <c r="X6" s="9" t="n">
+        <v>0.1273</v>
+      </c>
+      <c r="Y6" s="9" t="n">
+        <v>0.1299</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>0.1321</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+        <v>0.1247</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.1257</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.1268</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.1233</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.1261</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.1239</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.1244</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0.1232</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0.1221</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0.1228</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>0.1266</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>0.1274</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>0.1237</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>0.1244</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>0.1296</v>
+      </c>
+      <c r="T7" s="9" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="U7" s="9" t="n">
+        <v>0.1253</v>
+      </c>
+      <c r="V7" s="9" t="n">
+        <v>0.1253</v>
+      </c>
+      <c r="W7" s="9" t="n">
+        <v>0.1266</v>
+      </c>
+      <c r="X7" s="9" t="n">
+        <v>0.1259</v>
+      </c>
+      <c r="Y7" s="9" t="n">
+        <v>0.1247</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>0.1319</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>0.1154</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.1175</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0.1181</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0.1168</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>0.1171</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>0.1177</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>0.1186</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>0.1186</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>0.1178</v>
+      </c>
+      <c r="V8" s="9" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="W8" s="9" t="n">
+        <v>0.1181</v>
+      </c>
+      <c r="X8" s="9" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="Y8" s="9" t="n">
+        <v>0.117</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>0.1087</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+        <v>0.1075</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.1074</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.1069</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.1065</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.1038</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.1059</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0.1055</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0.1062</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0.1074</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.1036</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>0.1071</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>0.1036</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>0.1036</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>0.1043</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <v>0.1043</v>
+      </c>
+      <c r="T9" s="9" t="n">
+        <v>0.1051</v>
+      </c>
+      <c r="U9" s="9" t="n">
+        <v>0.1077</v>
+      </c>
+      <c r="V9" s="9" t="n">
+        <v>0.1057</v>
+      </c>
+      <c r="W9" s="9" t="n">
+        <v>0.1044</v>
+      </c>
+      <c r="X9" s="9" t="n">
+        <v>0.1058</v>
+      </c>
+      <c r="Y9" s="9" t="n">
+        <v>0.1049</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>0.1116</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+        <v>0.1047</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.1028</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.0986</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.1026</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.1007</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.0966</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0.0986</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0.0985</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0.0984</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.0986</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.1032</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.0988</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.0989</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0.0969</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>0.0991</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>0.1004</v>
+      </c>
+      <c r="S10" s="9" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="T10" s="9" t="n">
+        <v>0.0994</v>
+      </c>
+      <c r="U10" s="9" t="n">
+        <v>0.0998</v>
+      </c>
+      <c r="V10" s="9" t="n">
+        <v>0.1005</v>
+      </c>
+      <c r="W10" s="9" t="n">
+        <v>0.0977</v>
+      </c>
+      <c r="X10" s="9" t="n">
+        <v>0.1001</v>
+      </c>
+      <c r="Y10" s="9" t="n">
+        <v>0.0984</v>
+      </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <f aca="false">AVERAGE(A1:A10)</f>
-        <v>0.12882</v>
-      </c>
-      <c r="B11" s="5" t="e">
+        <v>0.11689</v>
+      </c>
+      <c r="B11" s="5" t="n">
         <f aca="false">AVERAGE(B1:B10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="5" t="e">
+        <v>0.11682</v>
+      </c>
+      <c r="C11" s="5" t="n">
         <f aca="false">AVERAGE(C1:C10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="5" t="e">
+        <v>0.11725</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <f aca="false">AVERAGE(D1:D10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="5" t="e">
+        <v>0.11609</v>
+      </c>
+      <c r="E11" s="5" t="n">
         <f aca="false">AVERAGE(E1:E10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="5" t="e">
+        <v>0.11632</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <f aca="false">AVERAGE(F1:F10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="5" t="e">
+        <v>0.11718</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <f aca="false">AVERAGE(G1:G10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="5" t="e">
+        <v>0.11581</v>
+      </c>
+      <c r="H11" s="5" t="n">
         <f aca="false">AVERAGE(H1:H10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="5" t="e">
+        <v>0.11559</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <f aca="false">AVERAGE(I1:I10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="5" t="e">
+        <v>0.11585</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <f aca="false">AVERAGE(J1:J10)</f>
-        <v>#DIV/0!</v>
+        <v>0.11649</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <f aca="false">AVERAGE(K1:K10)</f>
+        <v>0.11596</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <f aca="false">AVERAGE(L1:L10)</f>
+        <v>0.11598</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <f aca="false">AVERAGE(M1:M10)</f>
+        <v>0.1162</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <f aca="false">AVERAGE(N1:N10)</f>
+        <v>0.11556</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <f aca="false">AVERAGE(O1:O10)</f>
+        <v>0.11645</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <f aca="false">AVERAGE(P1:P10)</f>
+        <v>0.11555</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <f aca="false">AVERAGE(Q1:Q10)</f>
+        <v>0.11587</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <f aca="false">AVERAGE(R1:R10)</f>
+        <v>0.11687</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <f aca="false">AVERAGE(S1:S10)</f>
+        <v>0.11654</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <f aca="false">AVERAGE(T1:T10)</f>
+        <v>0.11609</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <f aca="false">AVERAGE(U1:U10)</f>
+        <v>0.11634</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <f aca="false">AVERAGE(V1:V10)</f>
+        <v>0.11572</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <f aca="false">AVERAGE(W1:W10)</f>
+        <v>0.11659</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <f aca="false">AVERAGE(X1:X10)</f>
+        <v>0.11557</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <f aca="false">AVERAGE(Y1:Y10)</f>
+        <v>0.11657</v>
+      </c>
+    </row>
+    <row r="12" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="T12" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="V12" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>2020</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>2021</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>2023</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AB19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA6" activeCellId="0" sqref="AA6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="9" width="21.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="29" style="9" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>0.1162</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0.1148</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>0.1149</v>
+      </c>
+      <c r="O2" s="9" t="n">
+        <v>0.1162</v>
+      </c>
+      <c r="P2" s="9" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="Q2" s="9" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>0.1152</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="T2" s="9" t="n">
+        <v>0.1152</v>
+      </c>
+      <c r="U2" s="9" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="V2" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="W2" s="9" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="X2" s="9" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="Y2" s="9" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="Z2" s="9" t="n">
+        <v>0.1152</v>
+      </c>
+      <c r="AB2" s="9" t="n">
+        <f aca="false">AVERAGE(B2:Z2)</f>
+        <v>0.115748</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>0.1166</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0.1166</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>0.1166</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="T3" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="U3" s="9" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="V3" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="W3" s="9" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="X3" s="9" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="Y3" s="9" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="Z3" s="9" t="n">
+        <v>0.1168</v>
+      </c>
+      <c r="AB3" s="9" t="n">
+        <f aca="false">AVERAGE(B3:Z3)</f>
+        <v>0.116188</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>0.1152</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0.1151</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0.1184</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="P4" s="9" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="Q4" s="9" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="R4" s="9" t="n">
+        <v>0.1173</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="T4" s="9" t="n">
+        <v>0.1162</v>
+      </c>
+      <c r="U4" s="9" t="n">
+        <v>0.1152</v>
+      </c>
+      <c r="V4" s="9" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="W4" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="X4" s="9" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="Y4" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="Z4" s="9" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="AB4" s="9" t="n">
+        <f aca="false">AVERAGE(B4:Z4)</f>
+        <v>0.11604</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0.1171</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0.1166</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>0.1168</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>0.1166</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>0.1166</v>
+      </c>
+      <c r="T5" s="9" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="V5" s="9" t="n">
+        <v>0.1168</v>
+      </c>
+      <c r="W5" s="9" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="X5" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="Y5" s="9" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="Z5" s="9" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="AB5" s="9" t="n">
+        <f aca="false">AVERAGE(B5:Z5)</f>
+        <v>0.116084</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0.1168</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0.1173</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0.1172</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>0.1162</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="W6" s="9" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="X6" s="9" t="n">
+        <v>0.1166</v>
+      </c>
+      <c r="Y6" s="9" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="Z6" s="9" t="n">
+        <v>0.1166</v>
+      </c>
+      <c r="AB6" s="9" t="n">
+        <f aca="false">AVERAGE(B6:Z6)</f>
+        <v>0.11626</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <f aca="false">AVERAGE(B2:B6)</f>
+        <v>0.11628</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <f aca="false">AVERAGE(C2:C6)</f>
+        <v>0.11622</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <f aca="false">AVERAGE(D2:D6)</f>
+        <v>0.11642</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <f aca="false">AVERAGE(E2:E6)</f>
+        <v>0.11602</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <f aca="false">AVERAGE(F2:F6)</f>
+        <v>0.11634</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <f aca="false">AVERAGE(G2:G6)</f>
+        <v>0.11652</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <f aca="false">AVERAGE(H2:H6)</f>
+        <v>0.11592</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <f aca="false">AVERAGE(I2:I6)</f>
+        <v>0.11608</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <f aca="false">AVERAGE(J2:J6)</f>
+        <v>0.11588</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <f aca="false">AVERAGE(K2:K6)</f>
+        <v>0.11576</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <f aca="false">AVERAGE(L2:L6)</f>
+        <v>0.11566</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <f aca="false">AVERAGE(M2:M6)</f>
+        <v>0.11662</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <f aca="false">AVERAGE(N2:N6)</f>
+        <v>0.11608</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <f aca="false">AVERAGE(O2:O6)</f>
+        <v>0.11604</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <f aca="false">AVERAGE(P2:P6)</f>
+        <v>0.11628</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <f aca="false">AVERAGE(Q2:Q6)</f>
+        <v>0.11598</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <f aca="false">AVERAGE(R2:R6)</f>
+        <v>0.1161</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <f aca="false">AVERAGE(S2:S6)</f>
+        <v>0.11638</v>
+      </c>
+      <c r="T9" s="9" t="n">
+        <f aca="false">AVERAGE(T2:T6)</f>
+        <v>0.11592</v>
+      </c>
+      <c r="U9" s="9" t="n">
+        <f aca="false">AVERAGE(U2:U6)</f>
+        <v>0.11556</v>
+      </c>
+      <c r="V9" s="9" t="n">
+        <f aca="false">AVERAGE(V2:V6)</f>
+        <v>0.11614</v>
+      </c>
+      <c r="W9" s="9" t="n">
+        <f aca="false">AVERAGE(W2:W6)</f>
+        <v>0.1156</v>
+      </c>
+      <c r="X9" s="9" t="n">
+        <f aca="false">AVERAGE(X2:X6)</f>
+        <v>0.11576</v>
+      </c>
+      <c r="Y9" s="9" t="n">
+        <f aca="false">AVERAGE(Y2:Y6)</f>
+        <v>0.11574</v>
+      </c>
+      <c r="Z9" s="9" t="n">
+        <f aca="false">AVERAGE(Z2:Z6)</f>
+        <v>0.1163</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
+++ b/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTS" sheetId="1" state="visible" r:id="rId2"/>
@@ -206,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,19 +243,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,7 +266,7 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -516,8 +504,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -790,7 +778,7 @@
   </sheetPr>
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1283,7 +1271,7 @@
   </sheetPr>
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2065,17 +2053,17 @@
   </sheetPr>
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10"/>
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6"/>
       <c r="B1" s="6" t="n">
         <v>1</v>
       </c>
@@ -2148,16 +2136,14 @@
       <c r="Y1" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6" t="s">
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="AB1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="6" t="n">
         <v>2014</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -2232,165 +2218,231 @@
       <c r="Y2" s="2" t="n">
         <v>0.1156</v>
       </c>
-      <c r="Z2" s="2" t="n">
-        <v>0.1166</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <f aca="false">AVERAGE(B2:Z2)</f>
-        <v>0.11626</v>
+      <c r="AA2" s="2" t="n">
+        <f aca="false">AVERAGE(B2:Y2)</f>
+        <v>0.116245833333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="6" t="n">
         <v>2015</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="6" t="n">
         <v>2016</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="6" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="6" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="6" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="6" t="n">
         <v>2020</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="6" t="n">
         <v>2021</v>
       </c>
+      <c r="B9" s="9" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0.1421</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0.1394</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.1403</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0.1412</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0.1393</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>0.1404</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>0.1408</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>0.1418</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <v>0.1408</v>
+      </c>
+      <c r="T9" s="9" t="n">
+        <v>0.1404</v>
+      </c>
+      <c r="U9" s="9" t="n">
+        <v>0.1407</v>
+      </c>
+      <c r="V9" s="9" t="n">
+        <v>0.1396</v>
+      </c>
+      <c r="W9" s="9" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="X9" s="9" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="Y9" s="9" t="n">
+        <v>0.1414</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="6" t="n">
         <v>2022</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="6" t="n">
         <v>2023</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12" t="n">
+    <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.1169</v>
-      </c>
-      <c r="C13" s="12" t="n">
+        <v>0.12835</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>0.1168</v>
-      </c>
-      <c r="D13" s="12" t="n">
+        <v>0.12945</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>0.1173</v>
-      </c>
-      <c r="E13" s="12" t="n">
+        <v>0.12835</v>
+      </c>
+      <c r="E13" s="5" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
-        <v>0.1161</v>
-      </c>
-      <c r="F13" s="12" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="F13" s="5" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
-        <v>0.1163</v>
-      </c>
-      <c r="G13" s="12" t="n">
+        <v>0.1281</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.1172</v>
-      </c>
-      <c r="H13" s="12" t="n">
+        <v>0.1289</v>
+      </c>
+      <c r="H13" s="5" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>0.1158</v>
-      </c>
-      <c r="I13" s="12" t="n">
+        <v>0.12805</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
-        <v>0.1156</v>
-      </c>
-      <c r="J13" s="12" t="n">
+        <v>0.1285</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <f aca="false">AVERAGE(J2:J11)</f>
-        <v>0.1159</v>
-      </c>
-      <c r="K13" s="12" t="n">
+        <v>0.12845</v>
+      </c>
+      <c r="K13" s="5" t="n">
         <f aca="false">AVERAGE(K2:K11)</f>
-        <v>0.1165</v>
-      </c>
-      <c r="L13" s="12" t="n">
+        <v>0.1282</v>
+      </c>
+      <c r="L13" s="5" t="n">
         <f aca="false">AVERAGE(L2:L11)</f>
-        <v>0.116</v>
-      </c>
-      <c r="M13" s="12" t="n">
+        <v>0.1286</v>
+      </c>
+      <c r="M13" s="5" t="n">
         <f aca="false">AVERAGE(M2:M11)</f>
-        <v>0.116</v>
-      </c>
-      <c r="N13" s="12" t="n">
+        <v>0.12765</v>
+      </c>
+      <c r="N13" s="5" t="n">
         <f aca="false">AVERAGE(N2:N11)</f>
-        <v>0.1162</v>
-      </c>
-      <c r="O13" s="12" t="n">
+        <v>0.1286</v>
+      </c>
+      <c r="O13" s="5" t="n">
         <f aca="false">AVERAGE(O2:O11)</f>
-        <v>0.1156</v>
-      </c>
-      <c r="P13" s="12" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="P13" s="5" t="n">
         <f aca="false">AVERAGE(P2:P11)</f>
-        <v>0.1165</v>
-      </c>
-      <c r="Q13" s="12" t="n">
+        <v>0.12865</v>
+      </c>
+      <c r="Q13" s="5" t="n">
         <f aca="false">AVERAGE(Q2:Q11)</f>
-        <v>0.1156</v>
-      </c>
-      <c r="R13" s="12" t="n">
+        <v>0.12775</v>
+      </c>
+      <c r="R13" s="5" t="n">
         <f aca="false">AVERAGE(R2:R11)</f>
-        <v>0.1159</v>
-      </c>
-      <c r="S13" s="12" t="n">
+        <v>0.12885</v>
+      </c>
+      <c r="S13" s="5" t="n">
         <f aca="false">AVERAGE(S2:S11)</f>
-        <v>0.1169</v>
-      </c>
-      <c r="T13" s="12" t="n">
+        <v>0.12885</v>
+      </c>
+      <c r="T13" s="5" t="n">
         <f aca="false">AVERAGE(T2:T11)</f>
-        <v>0.1165</v>
-      </c>
-      <c r="U13" s="12" t="n">
+        <v>0.12845</v>
+      </c>
+      <c r="U13" s="5" t="n">
         <f aca="false">AVERAGE(U2:U11)</f>
-        <v>0.1161</v>
-      </c>
-      <c r="V13" s="12" t="n">
+        <v>0.1284</v>
+      </c>
+      <c r="V13" s="5" t="n">
         <f aca="false">AVERAGE(V2:V11)</f>
-        <v>0.1163</v>
-      </c>
-      <c r="W13" s="12" t="n">
+        <v>0.12795</v>
+      </c>
+      <c r="W13" s="5" t="n">
         <f aca="false">AVERAGE(W2:W11)</f>
-        <v>0.1157</v>
-      </c>
-      <c r="X13" s="12" t="n">
+        <v>0.12855</v>
+      </c>
+      <c r="X13" s="5" t="n">
         <f aca="false">AVERAGE(X2:X11)</f>
-        <v>0.1166</v>
-      </c>
-      <c r="Y13" s="12" t="n">
+        <v>0.1282</v>
+      </c>
+      <c r="Y13" s="5" t="n">
         <f aca="false">AVERAGE(Y2:Y11)</f>
-        <v>0.1156</v>
-      </c>
-      <c r="Z13" s="12" t="n">
-        <f aca="false">AVERAGE(Z2:Z11)</f>
-        <v>0.1166</v>
-      </c>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12" t="n">
-        <f aca="false">AVERAGE(AB2:AB11)</f>
-        <v>0.11626</v>
-      </c>
+        <v>0.1285</v>
+      </c>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5" t="n">
+        <f aca="false">AVERAGE(AA2:AA11)</f>
+        <v>0.116245833333333</v>
+      </c>
+      <c r="AB13" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
+++ b/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">RANDOM FOREST</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">AVERAGE PER FEATURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average</t>
   </si>
 </sst>
 </file>
@@ -2051,15 +2048,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y12" activeCellId="0" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="29" style="9" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,10 +2135,14 @@
         <v>24</v>
       </c>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="0"/>
+      <c r="AA1" s="6"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
@@ -2218,231 +2220,820 @@
       <c r="Y2" s="2" t="n">
         <v>0.1156</v>
       </c>
-      <c r="AA2" s="2" t="n">
-        <f aca="false">AVERAGE(B2:Y2)</f>
-        <v>0.116245833333333</v>
-      </c>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>2015</v>
       </c>
+      <c r="B3" s="9" t="n">
+        <v>0.1091</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>0.1087</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>0.1093</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>0.1086</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0.1092</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0.1087</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0.1089</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0.1086</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0.1093</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0.1095</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>0.1095</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>0.1083</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>0.1086</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>0.1092</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>0.1093</v>
+      </c>
+      <c r="T3" s="9" t="n">
+        <v>0.1085</v>
+      </c>
+      <c r="U3" s="9" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="V3" s="9" t="n">
+        <v>0.1084</v>
+      </c>
+      <c r="W3" s="9" t="n">
+        <v>0.1092</v>
+      </c>
+      <c r="X3" s="9" t="n">
+        <v>0.1091</v>
+      </c>
+      <c r="Y3" s="9" t="n">
+        <v>0.1087</v>
+      </c>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>2016</v>
       </c>
+      <c r="B4" s="9" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.0418</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0.0418</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0.0418</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0.0418</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="P4" s="9" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="Q4" s="9" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="R4" s="9" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="T4" s="9" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="U4" s="9" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="V4" s="9" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="W4" s="9" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="X4" s="9" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="Y4" s="9" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="AA4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>2017</v>
       </c>
+      <c r="B5" s="9" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>0.1071</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.1073</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0.1076</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0.1065</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0.1075</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0.1068</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0.1075</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0.1069</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>0.1066</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>0.1074</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>0.1066</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>0.1061</v>
+      </c>
+      <c r="T5" s="9" t="n">
+        <v>0.1062</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="V5" s="9" t="n">
+        <v>0.1063</v>
+      </c>
+      <c r="W5" s="9" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="X5" s="9" t="n">
+        <v>0.1075</v>
+      </c>
+      <c r="Y5" s="9" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="AA5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>2018</v>
       </c>
+      <c r="B6" s="9" t="n">
+        <v>0.1027</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0.1023</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0.1024</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0.1024</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0.1018</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>0.1014</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>0.1023</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>0.1022</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>0.1023</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>0.1023</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>0.1014</v>
+      </c>
+      <c r="W6" s="9" t="n">
+        <v>0.1026</v>
+      </c>
+      <c r="X6" s="9" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="Y6" s="9" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="AA6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>2019</v>
       </c>
+      <c r="B7" s="9" t="n">
+        <v>0.0922</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>0.0922</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0.0928</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0.0922</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.0924</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0.0929</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0.0925</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0.0918</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0.0925</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>0.0928</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>0.0924</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>0.0918</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="T7" s="9" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="U7" s="9" t="n">
+        <v>0.0922</v>
+      </c>
+      <c r="V7" s="9" t="n">
+        <v>0.0923</v>
+      </c>
+      <c r="W7" s="9" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="X7" s="9" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="Y7" s="9" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="AA7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>2020</v>
       </c>
+      <c r="B8" s="9" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0.0658</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0.0657</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0.0664</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0.0662</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0.0656</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>0.0665</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>0.0655</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>0.0653</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>0.0659</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>0.0658</v>
+      </c>
+      <c r="V8" s="9" t="n">
+        <v>0.0664</v>
+      </c>
+      <c r="W8" s="9" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="X8" s="9" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="Y8" s="9" t="n">
+        <v>0.0665</v>
+      </c>
+      <c r="AA8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>2021</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.1398</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.1421</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="2" t="n">
         <v>0.1394</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.1399</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.1399</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="2" t="n">
         <v>0.1406</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.1403</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="2" t="n">
         <v>0.1414</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="2" t="n">
         <v>0.141</v>
       </c>
-      <c r="K9" s="9" t="n">
+      <c r="K9" s="2" t="n">
         <v>0.1399</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="2" t="n">
         <v>0.1412</v>
       </c>
-      <c r="M9" s="9" t="n">
+      <c r="M9" s="2" t="n">
         <v>0.1393</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="2" t="n">
         <v>0.141</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="2" t="n">
         <v>0.1404</v>
       </c>
-      <c r="P9" s="9" t="n">
+      <c r="P9" s="2" t="n">
         <v>0.1408</v>
       </c>
-      <c r="Q9" s="9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>0.1399</v>
       </c>
-      <c r="R9" s="9" t="n">
+      <c r="R9" s="2" t="n">
         <v>0.1418</v>
       </c>
-      <c r="S9" s="9" t="n">
+      <c r="S9" s="2" t="n">
         <v>0.1408</v>
       </c>
-      <c r="T9" s="9" t="n">
+      <c r="T9" s="2" t="n">
         <v>0.1404</v>
       </c>
-      <c r="U9" s="9" t="n">
+      <c r="U9" s="2" t="n">
         <v>0.1407</v>
       </c>
-      <c r="V9" s="9" t="n">
+      <c r="V9" s="2" t="n">
         <v>0.1396</v>
       </c>
-      <c r="W9" s="9" t="n">
+      <c r="W9" s="2" t="n">
         <v>0.1414</v>
       </c>
-      <c r="X9" s="9" t="n">
+      <c r="X9" s="2" t="n">
         <v>0.1398</v>
       </c>
-      <c r="Y9" s="9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>0.1414</v>
       </c>
+      <c r="AA9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>2022</v>
       </c>
+      <c r="B10" s="9" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>0.0982</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0.0988</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.0985</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0.0976</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0.0987</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.0976</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0.0986</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0.0982</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.0979</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.0977</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.0983</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0.0979</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>0.0985</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>0.0983</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>0.0976</v>
+      </c>
+      <c r="S10" s="9" t="n">
+        <v>0.0981</v>
+      </c>
+      <c r="T10" s="9" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="U10" s="9" t="n">
+        <v>0.0981</v>
+      </c>
+      <c r="V10" s="9" t="n">
+        <v>0.0978</v>
+      </c>
+      <c r="W10" s="9" t="n">
+        <v>0.0984</v>
+      </c>
+      <c r="X10" s="9" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="Y10" s="9" t="n">
+        <v>0.0983</v>
+      </c>
+      <c r="AA10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>2023</v>
       </c>
+      <c r="B11" s="9" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>0.0963</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0.0964</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>0.0962</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0.0954</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0.0973</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0.0962</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0.0966</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0.0959</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0.0961</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>0.0961</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>0.0961</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="Q11" s="9" t="n">
+        <v>0.0962</v>
+      </c>
+      <c r="R11" s="9" t="n">
+        <v>0.0966</v>
+      </c>
+      <c r="S11" s="9" t="n">
+        <v>0.0962</v>
+      </c>
+      <c r="T11" s="9" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="U11" s="9" t="n">
+        <v>0.0953</v>
+      </c>
+      <c r="V11" s="9" t="n">
+        <v>0.0956</v>
+      </c>
+      <c r="W11" s="9" t="n">
+        <v>0.0957</v>
+      </c>
+      <c r="X11" s="9" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="Y11" s="9" t="n">
+        <v>0.0962</v>
+      </c>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA12" s="2"/>
     </row>
     <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.12835</v>
+        <v>0.09707</v>
       </c>
       <c r="C13" s="5" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>0.12945</v>
+        <v>0.09729</v>
       </c>
       <c r="D13" s="5" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>0.12835</v>
+        <v>0.0971</v>
       </c>
       <c r="E13" s="5" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
-        <v>0.128</v>
+        <v>0.09686</v>
       </c>
       <c r="F13" s="5" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
-        <v>0.1281</v>
+        <v>0.09677</v>
       </c>
       <c r="G13" s="5" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.1289</v>
+        <v>0.09736</v>
       </c>
       <c r="H13" s="5" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>0.12805</v>
+        <v>0.09669</v>
       </c>
       <c r="I13" s="5" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
-        <v>0.1285</v>
+        <v>0.09699</v>
       </c>
       <c r="J13" s="5" t="n">
         <f aca="false">AVERAGE(J2:J11)</f>
-        <v>0.12845</v>
+        <v>0.09691</v>
       </c>
       <c r="K13" s="5" t="n">
         <f aca="false">AVERAGE(K2:K11)</f>
-        <v>0.1282</v>
+        <v>0.09693</v>
       </c>
       <c r="L13" s="5" t="n">
         <f aca="false">AVERAGE(L2:L11)</f>
-        <v>0.1286</v>
+        <v>0.09693</v>
       </c>
       <c r="M13" s="5" t="n">
         <f aca="false">AVERAGE(M2:M11)</f>
-        <v>0.12765</v>
+        <v>0.09676</v>
       </c>
       <c r="N13" s="5" t="n">
         <f aca="false">AVERAGE(N2:N11)</f>
-        <v>0.1286</v>
+        <v>0.09705</v>
       </c>
       <c r="O13" s="5" t="n">
         <f aca="false">AVERAGE(O2:O11)</f>
-        <v>0.128</v>
+        <v>0.09674</v>
       </c>
       <c r="P13" s="5" t="n">
         <f aca="false">AVERAGE(P2:P11)</f>
-        <v>0.12865</v>
+        <v>0.09687</v>
       </c>
       <c r="Q13" s="5" t="n">
         <f aca="false">AVERAGE(Q2:Q11)</f>
-        <v>0.12775</v>
+        <v>0.09691</v>
       </c>
       <c r="R13" s="5" t="n">
         <f aca="false">AVERAGE(R2:R11)</f>
-        <v>0.12885</v>
+        <v>0.09705</v>
       </c>
       <c r="S13" s="5" t="n">
         <f aca="false">AVERAGE(S2:S11)</f>
-        <v>0.12885</v>
+        <v>0.09695</v>
       </c>
       <c r="T13" s="5" t="n">
         <f aca="false">AVERAGE(T2:T11)</f>
-        <v>0.12845</v>
+        <v>0.09675</v>
       </c>
       <c r="U13" s="5" t="n">
         <f aca="false">AVERAGE(U2:U11)</f>
-        <v>0.1284</v>
+        <v>0.09677</v>
       </c>
       <c r="V13" s="5" t="n">
         <f aca="false">AVERAGE(V2:V11)</f>
-        <v>0.12795</v>
+        <v>0.09656</v>
       </c>
       <c r="W13" s="5" t="n">
         <f aca="false">AVERAGE(W2:W11)</f>
-        <v>0.12855</v>
+        <v>0.09699</v>
       </c>
       <c r="X13" s="5" t="n">
         <f aca="false">AVERAGE(X2:X11)</f>
-        <v>0.1282</v>
+        <v>0.09697</v>
       </c>
       <c r="Y13" s="5" t="n">
         <f aca="false">AVERAGE(Y2:Y11)</f>
-        <v>0.1285</v>
+        <v>0.09697</v>
       </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="5" t="n">
-        <f aca="false">AVERAGE(AA2:AA11)</f>
-        <v>0.116245833333333</v>
-      </c>
-      <c r="AB13" s="0"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
+++ b/PAPER_FORESTFIRE_DURATION/results_from_optimus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTS" sheetId="1" state="visible" r:id="rId2"/>
@@ -203,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,10 +240,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,7 +260,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="AB2:AB9 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -502,7 +498,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="AB2:AB9 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -776,7 +772,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="AB2:AB9 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1268,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2:AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1807,7 +1803,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1910,6 +1906,10 @@
       <c r="Z9" s="2" t="n">
         <f aca="false">AVERAGE(Z2:Z6)</f>
         <v>0.1163</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <f aca="false">AVERAGE(AB2:AB6)</f>
+        <v>0.116064</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,14 +2050,14 @@
   </sheetPr>
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y12" activeCellId="0" sqref="Y12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y12" activeCellId="1" sqref="AB2:AB9 Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="29" style="9" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="29" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,76 +2226,76 @@
       <c r="A3" s="6" t="n">
         <v>2015</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.1091</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="2" t="n">
         <v>0.1087</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="2" t="n">
         <v>0.1093</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.1086</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.1092</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="2" t="n">
         <v>0.1087</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.109</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="2" t="n">
         <v>0.109</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="2" t="n">
         <v>0.1089</v>
       </c>
-      <c r="K3" s="9" t="n">
+      <c r="K3" s="2" t="n">
         <v>0.1086</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="L3" s="2" t="n">
         <v>0.1093</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="M3" s="2" t="n">
         <v>0.1095</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="N3" s="2" t="n">
         <v>0.1095</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="2" t="n">
         <v>0.1083</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="P3" s="2" t="n">
         <v>0.1086</v>
       </c>
-      <c r="Q3" s="9" t="n">
+      <c r="Q3" s="2" t="n">
         <v>0.109</v>
       </c>
-      <c r="R3" s="9" t="n">
+      <c r="R3" s="2" t="n">
         <v>0.1092</v>
       </c>
-      <c r="S3" s="9" t="n">
+      <c r="S3" s="2" t="n">
         <v>0.1093</v>
       </c>
-      <c r="T3" s="9" t="n">
+      <c r="T3" s="2" t="n">
         <v>0.1085</v>
       </c>
-      <c r="U3" s="9" t="n">
+      <c r="U3" s="2" t="n">
         <v>0.109</v>
       </c>
-      <c r="V3" s="9" t="n">
+      <c r="V3" s="2" t="n">
         <v>0.1084</v>
       </c>
-      <c r="W3" s="9" t="n">
+      <c r="W3" s="2" t="n">
         <v>0.1092</v>
       </c>
-      <c r="X3" s="9" t="n">
+      <c r="X3" s="2" t="n">
         <v>0.1091</v>
       </c>
-      <c r="Y3" s="9" t="n">
+      <c r="Y3" s="2" t="n">
         <v>0.1087</v>
       </c>
       <c r="AA3" s="2"/>
@@ -2304,76 +2304,76 @@
       <c r="A4" s="6" t="n">
         <v>2016</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.0422</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.0425</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="2" t="n">
         <v>0.0421</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.0422</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.0422</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.0419</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.0418</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="2" t="n">
         <v>0.0419</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="2" t="n">
         <v>0.0418</v>
       </c>
-      <c r="K4" s="9" t="n">
+      <c r="K4" s="2" t="n">
         <v>0.0423</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="2" t="n">
         <v>0.0418</v>
       </c>
-      <c r="M4" s="9" t="n">
+      <c r="M4" s="2" t="n">
         <v>0.0418</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="N4" s="2" t="n">
         <v>0.0421</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="2" t="n">
         <v>0.0415</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="2" t="n">
         <v>0.0421</v>
       </c>
-      <c r="Q4" s="9" t="n">
+      <c r="Q4" s="2" t="n">
         <v>0.0422</v>
       </c>
-      <c r="R4" s="9" t="n">
+      <c r="R4" s="2" t="n">
         <v>0.0422</v>
       </c>
-      <c r="S4" s="9" t="n">
+      <c r="S4" s="2" t="n">
         <v>0.0419</v>
       </c>
-      <c r="T4" s="9" t="n">
+      <c r="T4" s="2" t="n">
         <v>0.042</v>
       </c>
-      <c r="U4" s="9" t="n">
+      <c r="U4" s="2" t="n">
         <v>0.0415</v>
       </c>
-      <c r="V4" s="9" t="n">
+      <c r="V4" s="2" t="n">
         <v>0.0415</v>
       </c>
-      <c r="W4" s="9" t="n">
+      <c r="W4" s="2" t="n">
         <v>0.0422</v>
       </c>
-      <c r="X4" s="9" t="n">
+      <c r="X4" s="2" t="n">
         <v>0.0425</v>
       </c>
-      <c r="Y4" s="9" t="n">
+      <c r="Y4" s="2" t="n">
         <v>0.042</v>
       </c>
       <c r="AA4" s="2"/>
@@ -2382,76 +2382,76 @@
       <c r="A5" s="6" t="n">
         <v>2017</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.1079</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.1071</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.107</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.1073</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.107</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="2" t="n">
         <v>0.1076</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.1065</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="2" t="n">
         <v>0.1075</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="2" t="n">
         <v>0.1068</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="K5" s="2" t="n">
         <v>0.1075</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="2" t="n">
         <v>0.1067</v>
       </c>
-      <c r="M5" s="9" t="n">
+      <c r="M5" s="2" t="n">
         <v>0.1069</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="N5" s="2" t="n">
         <v>0.1066</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="2" t="n">
         <v>0.1074</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="P5" s="2" t="n">
         <v>0.107</v>
       </c>
-      <c r="Q5" s="9" t="n">
+      <c r="Q5" s="2" t="n">
         <v>0.1067</v>
       </c>
-      <c r="R5" s="9" t="n">
+      <c r="R5" s="2" t="n">
         <v>0.1066</v>
       </c>
-      <c r="S5" s="9" t="n">
+      <c r="S5" s="2" t="n">
         <v>0.1061</v>
       </c>
-      <c r="T5" s="9" t="n">
+      <c r="T5" s="2" t="n">
         <v>0.1062</v>
       </c>
-      <c r="U5" s="9" t="n">
+      <c r="U5" s="2" t="n">
         <v>0.1067</v>
       </c>
-      <c r="V5" s="9" t="n">
+      <c r="V5" s="2" t="n">
         <v>0.1063</v>
       </c>
-      <c r="W5" s="9" t="n">
+      <c r="W5" s="2" t="n">
         <v>0.1067</v>
       </c>
-      <c r="X5" s="9" t="n">
+      <c r="X5" s="2" t="n">
         <v>0.1075</v>
       </c>
-      <c r="Y5" s="9" t="n">
+      <c r="Y5" s="2" t="n">
         <v>0.1067</v>
       </c>
       <c r="AA5" s="2"/>
@@ -2460,76 +2460,76 @@
       <c r="A6" s="6" t="n">
         <v>2018</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.1027</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.1023</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.1021</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.1016</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.102</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.1024</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.1008</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="2" t="n">
         <v>0.1013</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="2" t="n">
         <v>0.102</v>
       </c>
-      <c r="K6" s="9" t="n">
+      <c r="K6" s="2" t="n">
         <v>0.102</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="2" t="n">
         <v>0.1024</v>
       </c>
-      <c r="M6" s="9" t="n">
+      <c r="M6" s="2" t="n">
         <v>0.1018</v>
       </c>
-      <c r="N6" s="9" t="n">
+      <c r="N6" s="2" t="n">
         <v>0.1014</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="2" t="n">
         <v>0.1023</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="P6" s="2" t="n">
         <v>0.1021</v>
       </c>
-      <c r="Q6" s="9" t="n">
+      <c r="Q6" s="2" t="n">
         <v>0.1022</v>
       </c>
-      <c r="R6" s="9" t="n">
+      <c r="R6" s="2" t="n">
         <v>0.1016</v>
       </c>
-      <c r="S6" s="9" t="n">
+      <c r="S6" s="2" t="n">
         <v>0.1023</v>
       </c>
-      <c r="T6" s="9" t="n">
+      <c r="T6" s="2" t="n">
         <v>0.1016</v>
       </c>
-      <c r="U6" s="9" t="n">
+      <c r="U6" s="2" t="n">
         <v>0.1023</v>
       </c>
-      <c r="V6" s="9" t="n">
+      <c r="V6" s="2" t="n">
         <v>0.1014</v>
       </c>
-      <c r="W6" s="9" t="n">
+      <c r="W6" s="2" t="n">
         <v>0.1026</v>
       </c>
-      <c r="X6" s="9" t="n">
+      <c r="X6" s="2" t="n">
         <v>0.102</v>
       </c>
-      <c r="Y6" s="9" t="n">
+      <c r="Y6" s="2" t="n">
         <v>0.1016</v>
       </c>
       <c r="AA6" s="2"/>
@@ -2538,76 +2538,76 @@
       <c r="A7" s="6" t="n">
         <v>2019</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.0922</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.0922</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="2" t="n">
         <v>0.0928</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.0922</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.0924</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.0929</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.0925</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="2" t="n">
         <v>0.0918</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="2" t="n">
         <v>0.093</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="2" t="n">
         <v>0.0927</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="2" t="n">
         <v>0.0921</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="M7" s="2" t="n">
         <v>0.0925</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="N7" s="2" t="n">
         <v>0.0928</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="2" t="n">
         <v>0.0924</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="P7" s="2" t="n">
         <v>0.0918</v>
       </c>
-      <c r="Q7" s="9" t="n">
+      <c r="Q7" s="2" t="n">
         <v>0.0927</v>
       </c>
-      <c r="R7" s="9" t="n">
+      <c r="R7" s="2" t="n">
         <v>0.0927</v>
       </c>
-      <c r="S7" s="9" t="n">
+      <c r="S7" s="2" t="n">
         <v>0.092</v>
       </c>
-      <c r="T7" s="9" t="n">
+      <c r="T7" s="2" t="n">
         <v>0.092</v>
       </c>
-      <c r="U7" s="9" t="n">
+      <c r="U7" s="2" t="n">
         <v>0.0922</v>
       </c>
-      <c r="V7" s="9" t="n">
+      <c r="V7" s="2" t="n">
         <v>0.0923</v>
       </c>
-      <c r="W7" s="9" t="n">
+      <c r="W7" s="2" t="n">
         <v>0.092</v>
       </c>
-      <c r="X7" s="9" t="n">
+      <c r="X7" s="2" t="n">
         <v>0.0926</v>
       </c>
-      <c r="Y7" s="9" t="n">
+      <c r="Y7" s="2" t="n">
         <v>0.0927</v>
       </c>
       <c r="AA7" s="2"/>
@@ -2616,76 +2616,76 @@
       <c r="A8" s="6" t="n">
         <v>2020</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="2" t="n">
         <v>0.0661</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.0667</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.0658</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.066</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.0657</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.0663</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.0664</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="2" t="n">
         <v>0.0662</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="2" t="n">
         <v>0.0656</v>
       </c>
-      <c r="K8" s="9" t="n">
+      <c r="K8" s="2" t="n">
         <v>0.0661</v>
       </c>
-      <c r="L8" s="9" t="n">
+      <c r="L8" s="2" t="n">
         <v>0.0663</v>
       </c>
-      <c r="M8" s="9" t="n">
+      <c r="M8" s="2" t="n">
         <v>0.0661</v>
       </c>
-      <c r="N8" s="9" t="n">
+      <c r="N8" s="2" t="n">
         <v>0.0665</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="2" t="n">
         <v>0.0655</v>
       </c>
-      <c r="P8" s="9" t="n">
+      <c r="P8" s="2" t="n">
         <v>0.0653</v>
       </c>
-      <c r="Q8" s="9" t="n">
+      <c r="Q8" s="2" t="n">
         <v>0.0663</v>
       </c>
-      <c r="R8" s="9" t="n">
+      <c r="R8" s="2" t="n">
         <v>0.0663</v>
       </c>
-      <c r="S8" s="9" t="n">
+      <c r="S8" s="2" t="n">
         <v>0.0659</v>
       </c>
-      <c r="T8" s="9" t="n">
+      <c r="T8" s="2" t="n">
         <v>0.0663</v>
       </c>
-      <c r="U8" s="9" t="n">
+      <c r="U8" s="2" t="n">
         <v>0.0658</v>
       </c>
-      <c r="V8" s="9" t="n">
+      <c r="V8" s="2" t="n">
         <v>0.0664</v>
       </c>
-      <c r="W8" s="9" t="n">
+      <c r="W8" s="2" t="n">
         <v>0.066</v>
       </c>
-      <c r="X8" s="9" t="n">
+      <c r="X8" s="2" t="n">
         <v>0.0661</v>
       </c>
-      <c r="Y8" s="9" t="n">
+      <c r="Y8" s="2" t="n">
         <v>0.0665</v>
       </c>
       <c r="AA8" s="2"/>
@@ -2772,76 +2772,76 @@
       <c r="A10" s="6" t="n">
         <v>2022</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.098</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="2" t="n">
         <v>0.0982</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="2" t="n">
         <v>0.0988</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="2" t="n">
         <v>0.0985</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="2" t="n">
         <v>0.0976</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="2" t="n">
         <v>0.0987</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="2" t="n">
         <v>0.0976</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="2" t="n">
         <v>0.0986</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="2" t="n">
         <v>0.0982</v>
       </c>
-      <c r="K10" s="9" t="n">
+      <c r="K10" s="2" t="n">
         <v>0.0979</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="2" t="n">
         <v>0.0974</v>
       </c>
-      <c r="M10" s="9" t="n">
+      <c r="M10" s="2" t="n">
         <v>0.0977</v>
       </c>
-      <c r="N10" s="9" t="n">
+      <c r="N10" s="2" t="n">
         <v>0.0983</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="O10" s="2" t="n">
         <v>0.0979</v>
       </c>
-      <c r="P10" s="9" t="n">
+      <c r="P10" s="2" t="n">
         <v>0.0985</v>
       </c>
-      <c r="Q10" s="9" t="n">
+      <c r="Q10" s="2" t="n">
         <v>0.0983</v>
       </c>
-      <c r="R10" s="9" t="n">
+      <c r="R10" s="2" t="n">
         <v>0.0976</v>
       </c>
-      <c r="S10" s="9" t="n">
+      <c r="S10" s="2" t="n">
         <v>0.0981</v>
       </c>
-      <c r="T10" s="9" t="n">
+      <c r="T10" s="2" t="n">
         <v>0.098</v>
       </c>
-      <c r="U10" s="9" t="n">
+      <c r="U10" s="2" t="n">
         <v>0.0981</v>
       </c>
-      <c r="V10" s="9" t="n">
+      <c r="V10" s="2" t="n">
         <v>0.0978</v>
       </c>
-      <c r="W10" s="9" t="n">
+      <c r="W10" s="2" t="n">
         <v>0.0984</v>
       </c>
-      <c r="X10" s="9" t="n">
+      <c r="X10" s="2" t="n">
         <v>0.0975</v>
       </c>
-      <c r="Y10" s="9" t="n">
+      <c r="Y10" s="2" t="n">
         <v>0.0983</v>
       </c>
       <c r="AA10" s="2"/>
@@ -2850,76 +2850,76 @@
       <c r="A11" s="6" t="n">
         <v>2023</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.0958</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="2" t="n">
         <v>0.0963</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="2" t="n">
         <v>0.0964</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="2" t="n">
         <v>0.0962</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="2" t="n">
         <v>0.0954</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="2" t="n">
         <v>0.0973</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="2" t="n">
         <v>0.0962</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="2" t="n">
         <v>0.0966</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="2" t="n">
         <v>0.0959</v>
       </c>
-      <c r="K11" s="9" t="n">
+      <c r="K11" s="2" t="n">
         <v>0.0958</v>
       </c>
-      <c r="L11" s="9" t="n">
+      <c r="L11" s="2" t="n">
         <v>0.0961</v>
       </c>
-      <c r="M11" s="9" t="n">
+      <c r="M11" s="2" t="n">
         <v>0.096</v>
       </c>
-      <c r="N11" s="9" t="n">
+      <c r="N11" s="2" t="n">
         <v>0.0961</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="O11" s="2" t="n">
         <v>0.0961</v>
       </c>
-      <c r="P11" s="9" t="n">
+      <c r="P11" s="2" t="n">
         <v>0.096</v>
       </c>
-      <c r="Q11" s="9" t="n">
+      <c r="Q11" s="2" t="n">
         <v>0.0962</v>
       </c>
-      <c r="R11" s="9" t="n">
+      <c r="R11" s="2" t="n">
         <v>0.0966</v>
       </c>
-      <c r="S11" s="9" t="n">
+      <c r="S11" s="2" t="n">
         <v>0.0962</v>
       </c>
-      <c r="T11" s="9" t="n">
+      <c r="T11" s="2" t="n">
         <v>0.096</v>
       </c>
-      <c r="U11" s="9" t="n">
+      <c r="U11" s="2" t="n">
         <v>0.0953</v>
       </c>
-      <c r="V11" s="9" t="n">
+      <c r="V11" s="2" t="n">
         <v>0.0956</v>
       </c>
-      <c r="W11" s="9" t="n">
+      <c r="W11" s="2" t="n">
         <v>0.0957</v>
       </c>
-      <c r="X11" s="9" t="n">
+      <c r="X11" s="2" t="n">
         <v>0.096</v>
       </c>
-      <c r="Y11" s="9" t="n">
+      <c r="Y11" s="2" t="n">
         <v>0.0962</v>
       </c>
       <c r="AA11" s="2"/>
